--- a/Document/BOM_V1.1.xlsx
+++ b/Document/BOM_V1.1.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F76E80F-61AE-4DBD-BCA7-C921BE97A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="BOM_Board1_GY-H1_2023-03-18" state="visible" r:id="rId4"/>
+    <sheet name="BOM_Board1_GY-H1_2023-03-18" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -613,9 +617,6 @@
     <t>33</t>
   </si>
   <si>
-    <t>GD32F303CET6</t>
-  </si>
-  <si>
     <t>U5</t>
   </si>
   <si>
@@ -625,9 +626,6 @@
     <t>GigaDevice(兆易创新)</t>
   </si>
   <si>
-    <t>C2826367</t>
-  </si>
-  <si>
     <t>34</t>
   </si>
   <si>
@@ -689,19 +687,34 @@
   </si>
   <si>
     <t>C2875275</t>
+  </si>
+  <si>
+    <t>GD32F303CGT6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2835084</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -728,7 +741,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1064,12 +1077,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
@@ -2138,25 +2153,25 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
+        <v>224</v>
+      </c>
+      <c r="D34" t="s">
         <v>200</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>201</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" t="s">
         <v>202</v>
       </c>
-      <c r="F34" t="s">
-        <v>57</v>
-      </c>
-      <c r="G34" t="s">
-        <v>200</v>
-      </c>
-      <c r="H34" t="s">
-        <v>203</v>
-      </c>
       <c r="I34" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
@@ -2164,31 +2179,31 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>203</v>
+      </c>
+      <c r="B35" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" t="s">
+        <v>204</v>
+      </c>
+      <c r="D35" t="s">
         <v>205</v>
       </c>
-      <c r="B35" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="E35" t="s">
         <v>206</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F35" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" t="s">
+        <v>204</v>
+      </c>
+      <c r="H35" t="s">
+        <v>57</v>
+      </c>
+      <c r="I35" t="s">
         <v>207</v>
-      </c>
-      <c r="E35" t="s">
-        <v>208</v>
-      </c>
-      <c r="F35" t="s">
-        <v>57</v>
-      </c>
-      <c r="G35" t="s">
-        <v>206</v>
-      </c>
-      <c r="H35" t="s">
-        <v>57</v>
-      </c>
-      <c r="I35" t="s">
-        <v>209</v>
       </c>
       <c r="J35" t="s">
         <v>18</v>
@@ -2196,7 +2211,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
         <v>31</v>
@@ -2205,10 +2220,10 @@
         <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E36" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
         <v>57</v>
@@ -2228,31 +2243,31 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>211</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" t="s">
+        <v>212</v>
+      </c>
+      <c r="D37" t="s">
         <v>213</v>
       </c>
-      <c r="B37" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="E37" t="s">
         <v>214</v>
       </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
+        <v>57</v>
+      </c>
+      <c r="G37" t="s">
+        <v>212</v>
+      </c>
+      <c r="H37" t="s">
         <v>215</v>
       </c>
-      <c r="E37" t="s">
+      <c r="I37" t="s">
         <v>216</v>
-      </c>
-      <c r="F37" t="s">
-        <v>57</v>
-      </c>
-      <c r="G37" t="s">
-        <v>214</v>
-      </c>
-      <c r="H37" t="s">
-        <v>217</v>
-      </c>
-      <c r="I37" t="s">
-        <v>218</v>
       </c>
       <c r="J37" t="s">
         <v>18</v>
@@ -2260,44 +2275,45 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>217</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" t="s">
+        <v>218</v>
+      </c>
+      <c r="D38" t="s">
         <v>219</v>
       </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>220</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>218</v>
+      </c>
+      <c r="G38" t="s">
         <v>221</v>
       </c>
-      <c r="E38" t="s">
+      <c r="H38" t="s">
         <v>222</v>
       </c>
-      <c r="F38" t="s">
-        <v>220</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>223</v>
       </c>
-      <c r="H38" t="s">
-        <v>224</v>
-      </c>
-      <c r="I38" t="s">
-        <v>225</v>
-      </c>
       <c r="J38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>57</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/BOM_V1.1.xlsx
+++ b/Document/BOM_V1.1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F76E80F-61AE-4DBD-BCA7-C921BE97A918}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4A4E98-D5C8-4F8A-ADEF-196E16F11AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM_Board1_GY-H1_2023-03-18" sheetId="1" r:id="rId1"/>
@@ -689,11 +689,11 @@
     <t>C2875275</t>
   </si>
   <si>
-    <t>GD32F303CGT6</t>
+    <t>C2835084</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>C2835084</t>
+    <t>GD32F303CET6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1081,15 +1081,15 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1185,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>38</v>
       </c>
@@ -1281,7 +1281,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
@@ -1313,7 +1313,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>53</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>60</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>66</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>72</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>78</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>84</v>
       </c>
@@ -1537,7 +1537,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>90</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>102</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -1665,7 +1665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>114</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>121</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>127</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>133</v>
       </c>
@@ -1793,7 +1793,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>139</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>144</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>154</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>159</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>164</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>170</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>176</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>181</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>187</v>
       </c>
@@ -2113,7 +2113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>193</v>
       </c>
@@ -2145,7 +2145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>199</v>
       </c>
@@ -2153,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D34" t="s">
         <v>200</v>
@@ -2165,19 +2165,19 @@
         <v>57</v>
       </c>
       <c r="G34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H34" t="s">
         <v>202</v>
       </c>
       <c r="I34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J34" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>203</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>208</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>211</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>217</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>57</v>
       </c>
